--- a/normalization.xlsx
+++ b/normalization.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dårlig database" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="1NF" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="2NF" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="3NF" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,12 +23,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="34">
   <si>
     <t xml:space="preserve">TABELL: Orders</t>
   </si>
   <si>
-    <t xml:space="preserve">NAME</t>
+    <t xml:space="preserve">ORDER_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSTOMER</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCTS</t>
@@ -47,7 +52,7 @@
     <t xml:space="preserve">GPU, CPU, RAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Roger Villevass</t>
+    <t xml:space="preserve">Vidar Jensen</t>
   </si>
   <si>
     <t xml:space="preserve">1070, 8700k, 16GB</t>
@@ -80,28 +85,46 @@
     <t xml:space="preserve">PRODUCT_TYPE</t>
   </si>
   <si>
-    <t xml:space="preserve">ORDER_ID</t>
+    <t xml:space="preserve">PRODUCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT_PRICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1080Ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7700k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8700k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16GB</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT_TYPE_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUCT_PRICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1080Ti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7700k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8700k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16GB</t>
+    <t xml:space="preserve">__________________________________________________________________________________________________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABELL: Customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSTOMER_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABELL: OrderDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORDER_DETAILS_ID</t>
   </si>
 </sst>
 </file>
@@ -152,7 +175,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +200,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -212,7 +241,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,7 +258,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -253,14 +294,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -269,15 +310,35 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,7 +395,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF6600"/>
@@ -358,17 +419,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A13:D79"/>
+  <dimension ref="A13:E79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.36"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
@@ -386,7 +447,7 @@
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -395,34 +456,50 @@
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="n">
         <v>12000</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>10500</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>10500</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
@@ -431,10 +508,10 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
@@ -447,77 +524,77 @@
       <c r="D30" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
-        <v>10</v>
+      <c r="A66" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="A67" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="B67" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>13</v>
+      <c r="A68" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B69" s="8" t="s">
+      <c r="A69" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="n">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
+      <c r="B79" s="11" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -538,16 +615,15 @@
   </sheetPr>
   <dimension ref="A13:G37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="16.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -564,260 +640,1154 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="15" t="n">
+      <c r="B19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="18" t="n">
         <v>4000</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15" t="n">
-        <v>4000</v>
-      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="13" t="n">
+      <c r="A20" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="D20" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="15" t="n">
+      <c r="B20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="18" t="n">
         <v>2500</v>
       </c>
       <c r="G20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="14" t="n">
+      <c r="C25" s="18" t="n">
         <v>6000</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="14" t="n">
+      <c r="C26" s="18" t="n">
         <v>2000</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
+      <c r="A27" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="14" t="n">
+      <c r="C27" s="18" t="n">
         <v>4000</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
+      <c r="A28" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B28" s="14" t="n">
+      <c r="B28" s="18" t="n">
         <v>1070</v>
       </c>
-      <c r="C28" s="14" t="n">
+      <c r="C28" s="18" t="n">
         <v>4000</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
+      <c r="A29" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="14" t="n">
+      <c r="C29" s="18" t="n">
         <v>4000</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+      <c r="A30" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="14" t="n">
+      <c r="C30" s="18" t="n">
         <v>2500</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>16</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A13:G94"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="18" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B33" s="2"/>
+      <c r="E33" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>18</v>
+      <c r="A34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="14" t="s">
+      <c r="A35" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="18" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="18" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="18" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C38" s="18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="18" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C92" s="16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B93" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C93" s="16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B94" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C94" s="16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A10:I49"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="1.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="I29" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="18" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="18" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="18" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" s="18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="I33" s="18" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="18" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="G35" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="18" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" s="14" t="s">
+      <c r="D36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="G39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="G40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
+      <c r="D41" s="2"/>
+      <c r="G41" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="B43" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" s="16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" s="16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I46" s="16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
